--- a/historicals.xlsx
+++ b/historicals.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AsherKlug\Documents\witness_calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26D3B62-F126-46EC-8195-1FB6A053455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AD1D2E-5495-4FDA-8734-94B56809B49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED2F4219-27BD-4A7B-9484-FE82FFA5C270}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$70</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3240DC-3887-4511-ABB2-AFC9F5D5C9A7}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,26 +440,761 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <f>1000/10*3</f>
-        <v>300</v>
+        <v>513.42136854741898</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <f>1000/5*2</f>
-        <v>400</v>
+        <v>163.45945945945945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>374.59879206212247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1001</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>423.8830897703549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1001</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>87.585299179912923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1002</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>319.7039777983349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1002</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>105.4125998225377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1002</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>147.7283829995115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1002</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>265.92543144486149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1002</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>266.60614801203542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1002</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>90.183242699930418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1003</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>235.56152495092465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1003</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>60.198019801980195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1003</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>193.46171070309001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1003</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>476.91002049222737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1003</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>53.256979241231207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1003</v>
+      </c>
+      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>144.75687164316284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3001</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>153.35941274566338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3001</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>85.118456518655108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3001</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>125.99527517718084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3001</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>168.17066519673045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3001</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>67.52860940049996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3002</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>128.48813539063752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3002</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>109.47490059831074</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3002</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>152.4148223414727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3002</v>
+      </c>
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>142.969056441459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3002</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>115.92684533031134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3003</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>36.460091632505424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3003</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>25.568181818181817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3003</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>52.383592017738351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3003</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>47.920054555946066</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3003</v>
+      </c>
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>57.839068148346499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3003</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>41.865048947679639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3004</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>49.689440993788814</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3004</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>60.299527062532832</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3004</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>102.67379679144385</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3004</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>83.132840694277363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3004</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>126.31578947368419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3004</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>44.006180836823312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>3005</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>136.05442176870747</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3005</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>921.73913043478251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3005</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>32.608096942990912</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3006</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>135.30518530674144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3006</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>92.790239213801627</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3006</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>40.360100999116156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3006</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>172.54029490426262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3006</v>
+      </c>
+      <c r="B48">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>165.23182205429009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3006</v>
+      </c>
+      <c r="B49">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>39.869584444621459</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3007</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>74.327810637638265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3007</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>157.60126928122241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3007</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>306.72531077651797</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3007</v>
+      </c>
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>84.178403710349514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3007</v>
+      </c>
+      <c r="B54">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>159.16875830102373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3007</v>
+      </c>
+      <c r="B55">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>17.313288706383943</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>5001</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>8.5167103085813327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>5001</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>7.2002880115204597</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>5001</v>
+      </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>8.0888471533301409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>5002</v>
+      </c>
+      <c r="B59">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>153.24816491160541</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>5002</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>9.6333669002651092</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>5003</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>29.513810133528445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>5003</v>
+      </c>
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>25.118875335952033</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>6001</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>5.8319999999999997E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6001</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>5.8319999999999997E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>6001</v>
+      </c>
+      <c r="B65">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>5.8319999999999997E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>6001</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>5.8319999999999997E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>6001</v>
+      </c>
+      <c r="B67">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>5.8319999999999997E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>6001</v>
+      </c>
+      <c r="B68">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>5.8319999999999997E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>6001</v>
+      </c>
+      <c r="B69">
+        <v>18</v>
+      </c>
+      <c r="C69">
+        <v>5.8319999999999997E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>6001</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>5.8319999999999997E-5</v>
       </c>
     </row>
   </sheetData>

--- a/historicals.xlsx
+++ b/historicals.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AsherKlug\Documents\witness_calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AD1D2E-5495-4FDA-8734-94B56809B49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EDCB6C-A7D9-4F0F-8B49-C96206A4DF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED2F4219-27BD-4A7B-9484-FE82FFA5C270}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED2F4219-27BD-4A7B-9484-FE82FFA5C270}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$70</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
   <si>
     <t>Duration</t>
   </si>
@@ -48,6 +49,144 @@
   </si>
   <si>
     <t>Maintenance ID</t>
+  </si>
+  <si>
+    <t>Emergency Stoppage</t>
+  </si>
+  <si>
+    <t>Lubrication repairs</t>
+  </si>
+  <si>
+    <t>Blockage</t>
+  </si>
+  <si>
+    <t>Electrical fault</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>MaintenanceID</t>
+  </si>
+  <si>
+    <t>MaintenanceType</t>
+  </si>
+  <si>
+    <t>MaintenanceCategory</t>
+  </si>
+  <si>
+    <t>Pitstop</t>
+  </si>
+  <si>
+    <t>Planned</t>
+  </si>
+  <si>
+    <t>Maintanence Related Shutdown</t>
+  </si>
+  <si>
+    <t>Half Plant Shutdown</t>
+  </si>
+  <si>
+    <t>Total Plant Shutdown</t>
+  </si>
+  <si>
+    <t>Metso</t>
+  </si>
+  <si>
+    <t>Bearing replacement</t>
+  </si>
+  <si>
+    <t>Unplanned</t>
+  </si>
+  <si>
+    <t>Belt repairs</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Chain Links Repair</t>
+  </si>
+  <si>
+    <t>Gearbox repairs</t>
+  </si>
+  <si>
+    <t>Grizzly Broken Bars</t>
+  </si>
+  <si>
+    <t>Inspection</t>
+  </si>
+  <si>
+    <t>Instrumentation fault</t>
+  </si>
+  <si>
+    <t>Leak</t>
+  </si>
+  <si>
+    <t>Leaking</t>
+  </si>
+  <si>
+    <t>ROM Bin Cleanup</t>
+  </si>
+  <si>
+    <t>Burner Failure</t>
+  </si>
+  <si>
+    <t>Shaft or Blade Failure</t>
+  </si>
+  <si>
+    <t>Total Power Outage</t>
+  </si>
+  <si>
+    <t>Power Event</t>
+  </si>
+  <si>
+    <t>Power Fluctuation</t>
+  </si>
+  <si>
+    <t>Acid Production</t>
+  </si>
+  <si>
+    <t>No Scheduled Production</t>
+  </si>
+  <si>
+    <t>Drum repairs</t>
+  </si>
+  <si>
+    <t>Liner replacement</t>
+  </si>
+  <si>
+    <t>Line/impellor replacement</t>
+  </si>
+  <si>
+    <t>Blocked / Bogged</t>
+  </si>
+  <si>
+    <t>No feed from mine</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>0-5 min Power Event</t>
+  </si>
+  <si>
+    <t>5-15 min Power Event</t>
+  </si>
+  <si>
+    <t>15-40 min Power Event</t>
+  </si>
+  <si>
+    <t>40-80 min Power Event</t>
+  </si>
+  <si>
+    <t>80-120 min Power Event</t>
+  </si>
+  <si>
+    <t>120-180 min Power Event</t>
+  </si>
+  <si>
+    <t>180 &lt; min Power Event</t>
   </si>
 </sst>
 </file>
@@ -421,11 +560,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3240DC-3887-4511-ABB2-AFC9F5D5C9A7}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -446,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>513.42136854741898</v>
+        <v>228.58333333244082</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -457,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>163.45945945945945</v>
+        <v>201.51666666747769</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -468,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>374.59879206212247</v>
+        <v>444.63333333365154</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -479,7 +623,7 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>423.8830897703549</v>
+        <v>282.13333333446644</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -490,7 +634,7 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>87.585299179912923</v>
+        <v>163.83333329999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -501,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>319.7039777983349</v>
+        <v>239.95000000071013</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -512,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>105.4125998225377</v>
+        <v>144.03333333361661</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -523,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>147.7283829995115</v>
+        <v>181.21666666679084</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -534,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>265.92543144486149</v>
+        <v>141.99999999976717</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -545,7 +689,7 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>266.60614801203542</v>
+        <v>200.51666666683741</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -556,7 +700,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>90.183242699930418</v>
+        <v>213.53333330000001</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -567,7 +711,7 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>235.56152495092465</v>
+        <v>114.350000000617</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -578,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>60.198019801980195</v>
+        <v>91.300000002142042</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -589,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>193.46171070309001</v>
+        <v>123.31666666612728</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -600,7 +744,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>476.91002049222737</v>
+        <v>213.50000000040745</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -611,7 +755,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>53.256979241231207</v>
+        <v>214.93333329999999</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -622,7 +766,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>144.75687164316284</v>
+        <v>91.300000002142042</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -633,7 +777,7 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>153.35941274566338</v>
+        <v>101.54999999870779</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -644,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>85.118456518655108</v>
+        <v>96.633333334000781</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -655,7 +799,7 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>125.99527517718084</v>
+        <v>99.099999998928979</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -666,7 +810,7 @@
         <v>18</v>
       </c>
       <c r="C22">
-        <v>168.17066519673045</v>
+        <v>96.383333333185874</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -677,7 +821,7 @@
         <v>20</v>
       </c>
       <c r="C23">
-        <v>67.52860940049996</v>
+        <v>127.5333333</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -688,7 +832,7 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>128.48813539063752</v>
+        <v>119.59999999974389</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -699,7 +843,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>109.47490059831074</v>
+        <v>106.78333333320916</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -710,7 +854,7 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <v>152.4148223414727</v>
+        <v>130.23333333228948</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -721,7 +865,7 @@
         <v>18</v>
       </c>
       <c r="C27">
-        <v>142.969056441459</v>
+        <v>92.099999999860302</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -732,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="C28">
-        <v>115.92684533031134</v>
+        <v>151.6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -743,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <v>36.460091632505424</v>
+        <v>27.549999999871943</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -754,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>25.568181818181817</v>
+        <v>42.11666666722158</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -765,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>52.383592017738351</v>
+        <v>76.716666665801313</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -776,7 +920,7 @@
         <v>18</v>
       </c>
       <c r="C32">
-        <v>47.920054555946066</v>
+        <v>29.683333333523478</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -787,7 +931,7 @@
         <v>19</v>
       </c>
       <c r="C33">
-        <v>57.839068148346499</v>
+        <v>26.516666666488163</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -798,7 +942,7 @@
         <v>20</v>
       </c>
       <c r="C34">
-        <v>41.865048947679639</v>
+        <v>43.916666669999998</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -809,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>49.689440993788814</v>
+        <v>30.416666666627862</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -820,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="C36">
-        <v>60.299527062532832</v>
+        <v>68.350000001199078</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -831,7 +975,7 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>102.67379679144385</v>
+        <v>146.48333333217306</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -842,7 +986,7 @@
         <v>18</v>
       </c>
       <c r="C38">
-        <v>83.132840694277363</v>
+        <v>35.53333333338378</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -853,7 +997,7 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>126.31578947368419</v>
+        <v>40.950000000069849</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -864,7 +1008,7 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>44.006180836823312</v>
+        <v>114.41666669999999</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -875,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>136.05442176870747</v>
+        <v>121.64999999944121</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -886,7 +1030,7 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>921.73913043478251</v>
+        <v>647.69999999954598</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -897,7 +1041,7 @@
         <v>20</v>
       </c>
       <c r="C43">
-        <v>32.608096942990912</v>
+        <v>196.28333330000001</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -908,7 +1052,7 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>135.30518530674144</v>
+        <v>42.8333333330811</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -919,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="C45">
-        <v>92.790239213801627</v>
+        <v>75.166666667384561</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -930,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>40.360100999116156</v>
+        <v>66.716666666558012</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -941,7 +1085,7 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>172.54029490426262</v>
+        <v>142.09999999904539</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -952,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="C48">
-        <v>165.23182205429009</v>
+        <v>99.999999999941792</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -963,7 +1107,7 @@
         <v>20</v>
       </c>
       <c r="C49">
-        <v>39.869584444621459</v>
+        <v>137.1333333</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -974,7 +1118,7 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>74.327810637638265</v>
+        <v>65.783333333674818</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -985,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="C51">
-        <v>157.60126928122241</v>
+        <v>147.53333333367482</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -996,7 +1140,7 @@
         <v>12</v>
       </c>
       <c r="C52">
-        <v>306.72531077651797</v>
+        <v>188.28333333152113</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1007,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="C53">
-        <v>84.178403710349514</v>
+        <v>59.916666667093523</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1018,7 +1162,7 @@
         <v>19</v>
       </c>
       <c r="C54">
-        <v>159.16875830102373</v>
+        <v>81.11666666722158</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1029,7 +1173,7 @@
         <v>20</v>
       </c>
       <c r="C55">
-        <v>17.313288706383943</v>
+        <v>85.216666669999995</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1040,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="C56">
-        <v>8.5167103085813327</v>
+        <v>10.333333333139308</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1051,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="C57">
-        <v>7.2002880115204597</v>
+        <v>8.8833333331276663</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1062,7 +1206,7 @@
         <v>20</v>
       </c>
       <c r="C58">
-        <v>8.0888471533301409</v>
+        <v>2.8166666669999998</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1073,7 +1217,7 @@
         <v>18</v>
       </c>
       <c r="C59">
-        <v>153.24816491160541</v>
+        <v>136.53333333326736</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1084,7 +1228,7 @@
         <v>20</v>
       </c>
       <c r="C60">
-        <v>9.6333669002651092</v>
+        <v>27.716666669999999</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1095,7 +1239,7 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>29.513810133528445</v>
+        <v>41.483333333220799</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1106,7 +1250,7 @@
         <v>20</v>
       </c>
       <c r="C62">
-        <v>25.118875335952033</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1117,7 +1261,7 @@
         <v>6</v>
       </c>
       <c r="C63">
-        <v>5.8319999999999997E-5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1125,10 +1269,10 @@
         <v>6001</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C64">
-        <v>5.8319999999999997E-5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1136,10 +1280,10 @@
         <v>6001</v>
       </c>
       <c r="B65">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65">
-        <v>5.8319999999999997E-5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1147,10 +1291,10 @@
         <v>6001</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>5.8319999999999997E-5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1158,10 +1302,10 @@
         <v>6001</v>
       </c>
       <c r="B67">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C67">
-        <v>5.8319999999999997E-5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1169,10 +1313,10 @@
         <v>6001</v>
       </c>
       <c r="B68">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C68">
-        <v>5.8319999999999997E-5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1180,10 +1324,10 @@
         <v>6001</v>
       </c>
       <c r="B69">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C69">
-        <v>5.8319999999999997E-5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1191,10 +1335,693 @@
         <v>6001</v>
       </c>
       <c r="B70">
+        <v>37</v>
+      </c>
+      <c r="C70">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C70" xr:uid="{2D3240DC-3887-4511-ABB2-AFC9F5D5C9A7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C70">
+      <sortCondition ref="A2:A70"/>
+      <sortCondition ref="B2:B70"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015D92FF-4EE1-44AD-B472-13ADAC8D0019}">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="B27:D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C70">
-        <v>5.8319999999999997E-5</v>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/historicals.xlsx
+++ b/historicals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AsherKlug\Documents\witness_calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EDCB6C-A7D9-4F0F-8B49-C96206A4DF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3128BA9-4411-41EB-BAD7-CFF10BECC82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED2F4219-27BD-4A7B-9484-FE82FFA5C270}"/>
   </bookViews>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3240DC-3887-4511-ABB2-AFC9F5D5C9A7}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
